--- a/pcb/bom/BOM_JLCSMT.xlsx
+++ b/pcb/bom/BOM_JLCSMT.xlsx
@@ -147,7 +147,7 @@
     <t xml:space="preserve">R102,R117,R147,R132</t>
   </si>
   <si>
-    <t xml:space="preserve">C114555</t>
+    <t xml:space="preserve">C416078</t>
   </si>
   <si>
     <t xml:space="preserve">51k</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">R113,R114,R159,R143,R144,R129,R128,R158</t>
   </si>
   <si>
-    <t xml:space="preserve">C328437</t>
+    <t xml:space="preserve">C408924</t>
   </si>
   <si>
     <t xml:space="preserve">LM555</t>
@@ -464,10 +464,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.38"/>
